--- a/biology/Zoologie/Boulengerula/Boulengerula.xlsx
+++ b/biology/Zoologie/Boulengerula/Boulengerula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boulengerula est un genre de gymnophiones de la famille des Herpelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boulengerula est un genre de gymnophiones de la famille des Herpelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 8 espèces de ce genre se rencontrent en Tanzanie, au Kenya, au Rwanda et au Malawi[1]. Leurs présences est incertaine en Ouganda, au Burundi, en République démocratique du Congo, en Zambie et au Mozambique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 8 espèces de ce genre se rencontrent en Tanzanie, au Kenya, au Rwanda et au Malawi. Leurs présences est incertaine en Ouganda, au Burundi, en République démocratique du Congo, en Zambie et au Mozambique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (10 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (10 février 2014) :
 Boulengerula boulengeri Tornier, 1896
 Boulengerula changamwensis Loveridge, 1932
 Boulengerula denhardti Nieden, 1912
@@ -552,7 +568,7 @@
 Boulengerula niedeni Müller, Measey, Loader &amp; Malonza, 2005
 Boulengerula taitana Loveridge, 1935
 Boulengerula uluguruensis Barbour &amp; Loveridge, 1928
-En 2017, une nouvelle a été décrite (Zootaxa)[3] :
+En 2017, une nouvelle a été décrite (Zootaxa) :
 Boulengerula spawlsi Wilkinson, Malonza &amp; Loader</t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est nommé en l'honneur de George Albert Boulenger (1858-1937), zoologiste britannique d'origine belge.
 </t>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tornier, 1896 : Reptilien, Amphibien.  In: Möbius, K. (Ed.), Deutsch Ost-Afrika, vol. 3, Die Thierwelt Ost-Afrikas (Part 4). Dietrich Reimer, Berlin, p. 1-164.</t>
         </is>
